--- a/biology/Botanique/Mademoiselle_Germaine_Trochon/Mademoiselle_Germaine_Trochon.xlsx
+++ b/biology/Botanique/Mademoiselle_Germaine_Trochon/Mademoiselle_Germaine_Trochon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Mademoiselle Germaine Trochon' est un cultivar de rosier obtenu par le rosiériste lyonnais Joseph Pernet-Ducher en 1893[1]. Cet hybride de thé, classé à l'origine dans les Pernetianae, fait partie de la longue série de descendants de Rosa foetida créés par Pernet-Ducher à la recherche de la rose jaune idéale[2]. Elle a eu un grand renom en Angleterre grâce à sa bonne remontée d'automne[3]. Elle n'est plus commercialisée.
+'Mademoiselle Germaine Trochon' est un cultivar de rosier obtenu par le rosiériste lyonnais Joseph Pernet-Ducher en 1893. Cet hybride de thé, classé à l'origine dans les Pernetianae, fait partie de la longue série de descendants de Rosa foetida créés par Pernet-Ducher à la recherche de la rose jaune idéale. Elle a eu un grand renom en Angleterre grâce à sa bonne remontée d'automne. Elle n'est plus commercialisée.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété présente un buisson érigé de 100 cm très vigoureux. Il donne des fleurs globuleuses (17-25 pétales) fleurissant plutôt en solitaires par petits bouquets. Ses pétales sont de couleur jaune avec des nuances orangées et chamois[1],[4] et le cœur jaune nankin.
-Elle est issue du croisement de 'Victor Verdier' (Lacharme, 1859) et de 'Madame Eugène Verdier' (Levet, 1882). On peut encore l'admirer dans des roseraies anglaises, en Nouvelle-Angleterre aux États-Unis et en Australie où elle a eu un grand succès jusqu'entre les deux-guerres[5], avant d'être détrônée par des variétés plus robustes. Il existe aussi une variété grimpante.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété présente un buisson érigé de 100 cm très vigoureux. Il donne des fleurs globuleuses (17-25 pétales) fleurissant plutôt en solitaires par petits bouquets. Ses pétales sont de couleur jaune avec des nuances orangées et chamois, et le cœur jaune nankin.
+Elle est issue du croisement de 'Victor Verdier' (Lacharme, 1859) et de 'Madame Eugène Verdier' (Levet, 1882). On peut encore l'admirer dans des roseraies anglaises, en Nouvelle-Angleterre aux États-Unis et en Australie où elle a eu un grand succès jusqu'entre les deux-guerres, avant d'être détrônée par des variétés plus robustes. Il existe aussi une variété grimpante.
 </t>
         </is>
       </c>
